--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/CodeSystem/DeliveryMethodCS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/CodeSystem/DeliveryMethodCS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -404,52 +407,54 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -467,44 +472,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-DeliveryMethodCS.xlsx
+++ b/output/CodeSystem-DeliveryMethodCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
